--- a/excel/contrcat_10107.xlsx
+++ b/excel/contrcat_10107.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -166,19 +166,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>作業料金（月）</t>
-    <rPh sb="0" eb="2">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>リョウキン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ツキ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>（消費税別）</t>
     <rPh sb="1" eb="4">
       <t>ショウヒゼイ</t>
@@ -220,22 +207,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>未達控除金額</t>
-    <rPh sb="0" eb="1">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>タッ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウジョ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>キンガク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>円／時間</t>
     <rPh sb="0" eb="1">
       <t>エン</t>
@@ -345,6 +316,29 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>未達控除</t>
+    <rPh sb="0" eb="1">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>タッ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウジョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>作業料金</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リョウキン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -671,56 +665,56 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1413,8 +1407,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Y43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:O1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1423,53 +1417,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
     <row r="2" spans="1:18" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K2" s="46" t="s">
+      <c r="K2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
     </row>
     <row r="3" spans="1:18" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K3" s="27" t="s">
         <v>2</v>
       </c>
       <c r="L3" s="27"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
     </row>
     <row r="4" spans="1:18" ht="25.15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:18" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="48"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
       <c r="G5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1558,7 +1552,7 @@
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
       <c r="E12" s="26"/>
-      <c r="F12" s="42" t="s">
+      <c r="F12" s="54" t="s">
         <v>9</v>
       </c>
       <c r="G12" s="35"/>
@@ -1577,17 +1571,17 @@
       <c r="C13" s="25"/>
       <c r="D13" s="25"/>
       <c r="E13" s="26"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
       <c r="J13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="44"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="56"/>
     </row>
     <row r="14" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="24" t="s">
@@ -1625,7 +1619,7 @@
     </row>
     <row r="16" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="24" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -1637,14 +1631,14 @@
       <c r="J16" s="34"/>
       <c r="K16" s="34"/>
       <c r="L16" s="35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M16" s="36"/>
       <c r="N16" s="37"/>
     </row>
     <row r="17" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -1661,30 +1655,30 @@
     </row>
     <row r="18" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="26"/>
-      <c r="F18" s="41"/>
+      <c r="F18" s="57"/>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="12" t="s">
         <v>18</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>19</v>
       </c>
       <c r="K18" s="27"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
       <c r="N18" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="24" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -1693,11 +1687,11 @@
       <c r="G19" s="32"/>
       <c r="H19" s="32"/>
       <c r="I19" s="27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J19" s="27"/>
       <c r="K19" s="27" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L19" s="27"/>
       <c r="M19" s="27"/>
@@ -1705,7 +1699,7 @@
     </row>
     <row r="20" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -1714,11 +1708,11 @@
       <c r="G20" s="32"/>
       <c r="H20" s="32"/>
       <c r="I20" s="27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J20" s="27"/>
       <c r="K20" s="27" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L20" s="27"/>
       <c r="M20" s="27"/>
@@ -1726,7 +1720,7 @@
     </row>
     <row r="21" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -1735,7 +1729,7 @@
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J21" s="28"/>
       <c r="K21" s="28"/>
@@ -1745,38 +1739,38 @@
     </row>
     <row r="22" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
       <c r="E22" s="26"/>
       <c r="F22" s="27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G22" s="27"/>
       <c r="H22" s="27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I22" s="27"/>
       <c r="J22" s="27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K22" s="27"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N22" s="30"/>
     </row>
     <row r="23" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="F23" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="17"/>
@@ -1789,37 +1783,37 @@
     </row>
     <row r="24" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
-      <c r="F24" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="51"/>
+      <c r="F24" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="44"/>
     </row>
     <row r="25" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="20"/>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="54"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="47"/>
       <c r="R25" s="14"/>
       <c r="S25" s="14"/>
       <c r="T25" s="14"/>
@@ -1834,15 +1828,15 @@
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="54"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="47"/>
       <c r="O26" s="15"/>
       <c r="R26" s="14"/>
       <c r="S26" s="14"/>
@@ -1858,15 +1852,15 @@
       <c r="C27" s="21"/>
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="54"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="47"/>
       <c r="O27" s="15"/>
       <c r="R27" s="14"/>
       <c r="S27" s="14"/>
@@ -1882,15 +1876,15 @@
       <c r="C28" s="21"/>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="54"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="47"/>
       <c r="O28" s="15"/>
       <c r="R28" s="14"/>
       <c r="S28" s="14"/>
@@ -1906,15 +1900,15 @@
       <c r="C29" s="21"/>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="54"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="47"/>
       <c r="R29" s="14"/>
       <c r="S29" s="14"/>
       <c r="T29" s="14"/>
@@ -1929,15 +1923,15 @@
       <c r="C30" s="21"/>
       <c r="D30" s="21"/>
       <c r="E30" s="21"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="54"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="47"/>
       <c r="R30" s="14"/>
       <c r="S30" s="14"/>
       <c r="T30" s="14"/>
@@ -1952,45 +1946,45 @@
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
       <c r="E31" s="21"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="54"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="47"/>
     </row>
     <row r="32" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="20"/>
       <c r="C32" s="21"/>
       <c r="D32" s="21"/>
       <c r="E32" s="21"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="54"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="47"/>
     </row>
     <row r="33" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="22"/>
       <c r="C33" s="23"/>
       <c r="D33" s="23"/>
       <c r="E33" s="23"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="56"/>
-      <c r="M33" s="56"/>
-      <c r="N33" s="57"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="50"/>
     </row>
     <row r="34" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="35" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2039,6 +2033,9 @@
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="K20:N20"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:N23"/>
+    <mergeCell ref="B24:E33"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="I21:N21"/>
@@ -2047,9 +2044,6 @@
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="J22:L22"/>
     <mergeCell ref="M22:N22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:N23"/>
-    <mergeCell ref="B24:E33"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
